--- a/TEST 24.01.2026.xlsx
+++ b/TEST 24.01.2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc4b4fee7e3d8e21/Desktop/Hetvi Github/Data-Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C1513A6-1DB6-460A-AD9D-F09D7F88DFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{377B7748-BE04-4BDF-A006-3B714C9CE8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{572782F3-CCEA-40BC-B755-63A7C3B28BC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{572782F3-CCEA-40BC-B755-63A7C3B28BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$C$20</definedName>
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="168">
   <si>
     <t>Employee ID</t>
   </si>
@@ -430,6 +434,140 @@
   </si>
   <si>
     <t>ABSENT DAYS</t>
+  </si>
+  <si>
+    <t>PRESENT DAYS</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>O101</t>
+  </si>
+  <si>
+    <t>O102</t>
+  </si>
+  <si>
+    <t>O103</t>
+  </si>
+  <si>
+    <t>O104</t>
+  </si>
+  <si>
+    <t>O105</t>
+  </si>
+  <si>
+    <t>O106</t>
+  </si>
+  <si>
+    <t>Count sales above 10000
+Count sales below 5000</t>
+  </si>
+  <si>
+    <t>O107</t>
+  </si>
+  <si>
+    <t>O108</t>
+  </si>
+  <si>
+    <t>O109</t>
+  </si>
+  <si>
+    <t>O110</t>
+  </si>
+  <si>
+    <t>O111</t>
+  </si>
+  <si>
+    <t>O112</t>
+  </si>
+  <si>
+    <t>O113</t>
+  </si>
+  <si>
+    <t>O114</t>
+  </si>
+  <si>
+    <t>O115</t>
+  </si>
+  <si>
+    <t>O116</t>
+  </si>
+  <si>
+    <t>O117</t>
+  </si>
+  <si>
+    <t>O118</t>
+  </si>
+  <si>
+    <t>O119</t>
+  </si>
+  <si>
+    <t>ABOVE 10000</t>
+  </si>
+  <si>
+    <t>BELOW 5000</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Headphones</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Highlight sales &gt; 20000 (Green)
+Highlight sales &lt; 5000 (Red)</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Bharti</t>
+  </si>
+  <si>
+    <t>Chetan</t>
+  </si>
+  <si>
+    <t>Deepa</t>
+  </si>
+  <si>
+    <t>Farhan</t>
+  </si>
+  <si>
+    <t>Marks ≥ 75 → Green
+Marks &lt; 40 → Red</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Simran</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>Nisha</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>≥ 50000 → Dark Green
+30000–49999 → Yellow
+&lt; 30000 → Light Red</t>
   </si>
 </sst>
 </file>
@@ -438,9 +576,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,6 +680,39 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF1F2328"/>
       <name val="Segoe UI"/>
@@ -736,7 +907,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -759,7 +930,7 @@
     <xf numFmtId="44" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -771,7 +942,7 @@
     <xf numFmtId="44" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -783,7 +954,7 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -791,9 +962,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -850,41 +1018,214 @@
     <xf numFmtId="44" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1245,7 +1586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CF664E-4FA6-4C37-A32A-C5431F023875}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -1376,7 +1717,7 @@
       </c>
       <c r="D7" s="17">
         <f ca="1">RANDBETWEEN(30000,60000)</f>
-        <v>53146</v>
+        <v>46105</v>
       </c>
       <c r="E7" s="18">
         <v>44007</v>
@@ -1395,7 +1736,7 @@
       </c>
       <c r="D8" s="17">
         <f t="shared" ref="D8:D20" ca="1" si="0">RANDBETWEEN(30000,60000)</f>
-        <v>58979</v>
+        <v>53720</v>
       </c>
       <c r="E8" s="18">
         <v>45198</v>
@@ -1413,7 +1754,7 @@
       </c>
       <c r="D9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>49697</v>
+        <v>49197</v>
       </c>
       <c r="E9" s="18">
         <v>44409</v>
@@ -1431,19 +1772,19 @@
       </c>
       <c r="D10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>47273</v>
+        <v>30388</v>
       </c>
       <c r="E10" s="18">
         <v>44744</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="Q10" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
@@ -1457,17 +1798,17 @@
       </c>
       <c r="D11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43626</v>
+        <v>54467</v>
       </c>
       <c r="E11" s="18">
         <v>45588</v>
       </c>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -1481,17 +1822,17 @@
       </c>
       <c r="D12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>56171</v>
+        <v>43813</v>
       </c>
       <c r="E12" s="18">
         <v>45693</v>
       </c>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -1505,17 +1846,17 @@
       </c>
       <c r="D13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>47495</v>
+        <v>39900</v>
       </c>
       <c r="E13" s="18">
         <v>45723</v>
       </c>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
@@ -1529,17 +1870,17 @@
       </c>
       <c r="D14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>38736</v>
+        <v>56166</v>
       </c>
       <c r="E14" s="18">
         <v>45644</v>
       </c>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
@@ -1553,18 +1894,18 @@
       </c>
       <c r="D15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>55219</v>
+        <v>37200</v>
       </c>
       <c r="E15" s="18">
         <f>+E14-10</f>
         <v>45634</v>
       </c>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -1578,18 +1919,18 @@
       </c>
       <c r="D16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>58164</v>
+        <v>42612</v>
       </c>
       <c r="E16" s="18">
         <f>+E15-45</f>
         <v>45589</v>
       </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
@@ -1603,18 +1944,18 @@
       </c>
       <c r="D17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>38068</v>
+        <v>53513</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" ref="E17:E20" si="1">+E16-45</f>
         <v>45544</v>
       </c>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
     </row>
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
@@ -1628,18 +1969,18 @@
       </c>
       <c r="D18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>50841</v>
+        <v>59635</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" si="1"/>
         <v>45499</v>
       </c>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
     </row>
     <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
@@ -1653,18 +1994,18 @@
       </c>
       <c r="D19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>53331</v>
+        <v>56043</v>
       </c>
       <c r="E19" s="18">
         <f t="shared" si="1"/>
         <v>45454</v>
       </c>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
@@ -1678,35 +2019,35 @@
       </c>
       <c r="D20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>46275</v>
+        <v>52279</v>
       </c>
       <c r="E20" s="18">
         <f t="shared" si="1"/>
         <v>45409</v>
       </c>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="5"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1715,6 +2056,223 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67869EEE-033C-4CFE-AF27-3D43598FCE81}">
+  <dimension ref="A1:X20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="64">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="66">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="64">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="65">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="64">
+        <v>29000</v>
+      </c>
+      <c r="T6" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+    </row>
+    <row r="7" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="64">
+        <v>42300</v>
+      </c>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+    </row>
+    <row r="8" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="65">
+        <v>43800</v>
+      </c>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+    </row>
+    <row r="9" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="64">
+        <v>45300</v>
+      </c>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+    </row>
+    <row r="10" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="65">
+        <v>46800</v>
+      </c>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+    </row>
+    <row r="11" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="64">
+        <v>48300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="64">
+        <v>49800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="65">
+        <v>51300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="64">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="65">
+        <v>54300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="64">
+        <v>55800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="64">
+        <v>57300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="65">
+        <v>58800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="64">
+        <v>60300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="65">
+        <v>61800</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="T6:X10"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2:B20">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThanOrEqual">
+      <formula>50000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+      <formula>30000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+      <formula>30000</formula>
+      <formula>49999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1739,94 +2297,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:21" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="47" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="50">
         <v>45000</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="49" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="50">
         <v>12000</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="50">
         <v>18000</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="49" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="50">
         <v>62000</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="49" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="50">
         <v>59187</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="49" t="s">
         <v>55</v>
       </c>
       <c r="U7" s="19" t="s">
@@ -1834,198 +2392,198 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="50">
         <v>50985</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="50">
         <v>52547</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="49" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="50">
         <v>43712</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="49" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="50">
         <v>59709</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="49" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="50">
         <v>41661</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="50">
         <v>54810</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="49" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="50">
         <v>57649</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="49" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="50">
         <v>46601</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="49" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="50">
         <v>59043</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="50">
         <v>53290</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="49" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="50">
         <v>45647</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="49" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="50">
         <v>40203</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="49" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="50">
         <v>48361</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="50">
         <v>48906</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="49" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2054,25 +2612,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2092,11 +2650,11 @@
       <c r="E2" s="2">
         <v>74</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="27">
         <f>SUM(C2,D2,E2)</f>
         <v>234</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="28">
         <f>+F2/300</f>
         <v>0.78</v>
       </c>
@@ -2117,11 +2675,11 @@
       <c r="E3" s="3">
         <v>68</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="27">
         <f t="shared" ref="F3:F20" si="0">SUM(C3,D3,E3)</f>
         <v>203</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <f t="shared" ref="G3:G20" si="1">+F3/300</f>
         <v>0.67666666666666664</v>
       </c>
@@ -2142,17 +2700,17 @@
       <c r="E4" s="2">
         <v>92</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="28">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
     </row>
     <row r="5" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -2170,17 +2728,17 @@
       <c r="E5" s="3">
         <v>38</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="28">
         <f t="shared" si="1"/>
         <v>0.37666666666666665</v>
       </c>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
     </row>
     <row r="6" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -2198,17 +2756,17 @@
       <c r="E6" s="2">
         <v>58</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="27">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="28">
         <f t="shared" si="1"/>
         <v>0.57666666666666666</v>
       </c>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
     </row>
     <row r="7" spans="1:25" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -2226,17 +2784,17 @@
       <c r="E7" s="1">
         <v>95</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="27">
         <f t="shared" si="0"/>
         <v>263</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="28">
         <f t="shared" si="1"/>
         <v>0.87666666666666671</v>
       </c>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
     </row>
     <row r="8" spans="1:25" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -2254,17 +2812,17 @@
       <c r="E8" s="1">
         <v>95</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <f t="shared" si="0"/>
         <v>249</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="28">
         <f t="shared" si="1"/>
         <v>0.83</v>
       </c>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
     </row>
     <row r="9" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -2282,17 +2840,17 @@
       <c r="E9" s="1">
         <v>66</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="28">
         <f t="shared" si="1"/>
         <v>0.68666666666666665</v>
       </c>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
     </row>
     <row r="10" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -2310,17 +2868,17 @@
       <c r="E10" s="1">
         <v>78</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="28">
         <f t="shared" si="1"/>
         <v>0.7466666666666667</v>
       </c>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
     </row>
     <row r="11" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -2338,17 +2896,17 @@
       <c r="E11" s="1">
         <v>53</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="28">
         <f t="shared" si="1"/>
         <v>0.68666666666666665</v>
       </c>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
     </row>
     <row r="12" spans="1:25" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -2366,17 +2924,17 @@
       <c r="E12" s="1">
         <v>59</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="28">
         <f t="shared" si="1"/>
         <v>0.54</v>
       </c>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
     </row>
     <row r="13" spans="1:25" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -2394,17 +2952,17 @@
       <c r="E13" s="1">
         <v>90</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="27">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="28">
         <f t="shared" si="1"/>
         <v>0.81</v>
       </c>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
     </row>
     <row r="14" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -2422,11 +2980,11 @@
       <c r="E14" s="1">
         <v>61</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="27">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="28">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -2447,11 +3005,11 @@
       <c r="E15" s="1">
         <v>92</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="27">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="28">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
@@ -2472,11 +3030,11 @@
       <c r="E16" s="1">
         <v>73</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="27">
         <f t="shared" si="0"/>
         <v>241</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="28">
         <f t="shared" si="1"/>
         <v>0.80333333333333334</v>
       </c>
@@ -2497,11 +3055,11 @@
       <c r="E17" s="1">
         <v>50</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="27">
         <f t="shared" si="0"/>
         <v>234</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="28">
         <f t="shared" si="1"/>
         <v>0.78</v>
       </c>
@@ -2522,11 +3080,11 @@
       <c r="E18" s="1">
         <v>56</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="27">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="28">
         <f t="shared" si="1"/>
         <v>0.64</v>
       </c>
@@ -2547,11 +3105,11 @@
       <c r="E19" s="1">
         <v>80</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="27">
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="28">
         <f t="shared" si="1"/>
         <v>0.67333333333333334</v>
       </c>
@@ -2572,11 +3130,11 @@
       <c r="E20" s="1">
         <v>73</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="27">
         <f t="shared" si="0"/>
         <v>197</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="29">
         <f t="shared" si="1"/>
         <v>0.65666666666666662</v>
       </c>
@@ -2604,245 +3162,245 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="32">
         <v>45292</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>12000</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="33">
         <v>45294</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <v>25000</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>45296</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>8000</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="U4" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="33">
         <v>45299</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>32000</v>
       </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>45301</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>15000</v>
       </c>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>45292</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>22300</v>
       </c>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
     </row>
     <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <v>45294</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>23600</v>
       </c>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
     </row>
     <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>45296</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>24900</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="33">
         <v>45299</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>26200</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>45301</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>27500</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>45292</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>28800</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="33">
         <v>45294</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <v>30100</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>45296</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>31400</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="33">
         <v>45299</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <v>32700</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <v>45301</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>34000</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <v>45292</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>35300</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="33">
         <v>45294</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="23">
         <v>36600</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="32">
         <v>45296</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <v>37900</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <v>45297</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <v>39200</v>
       </c>
     </row>
@@ -2850,17 +3408,17 @@
       <c r="B21" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="34">
         <f>SUM(C2:C20)</f>
         <v>522500</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="36">
         <f>AVERAGE(C2:C20)</f>
         <v>27500</v>
       </c>
@@ -2869,7 +3427,7 @@
       <c r="B23" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="34">
         <f>MIN(C2:C20)</f>
         <v>8000</v>
       </c>
@@ -2878,7 +3436,7 @@
       <c r="B24" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="34">
         <f>MAX(C2:C20)</f>
         <v>39200</v>
       </c>
@@ -2908,288 +3466,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="41">
         <v>42000</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <f>SUM(C2:C7)</f>
         <v>231733.33333333337</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <v>38000</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>38276.190476190503</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="V4" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <v>38104.761904761901</v>
       </c>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>37761.9047619048</v>
       </c>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>37590.476190476198</v>
       </c>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="39">
         <v>28000</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <f>SUM(C8:C14)</f>
         <v>247923.8095238095</v>
       </c>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="39">
         <v>30000</v>
       </c>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="39">
         <v>38533.333333333299</v>
       </c>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="39">
         <v>38190.476190476198</v>
       </c>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="39">
         <v>38019.047619047597</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="39">
         <v>37676.190476190503</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="39">
         <v>37504.761904761901</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="41">
         <v>45000</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="37">
         <f>SUM(C15:C20)</f>
         <v>247590.47619047633</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="39">
         <v>50000</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="41">
         <v>38447.619047619097</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="39">
         <v>38361.9047619048</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="41">
         <v>37933.333333333299</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="45">
         <v>37847.619047619097</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="35">
+      <c r="A21" s="34">
         <f>COUNTA(A2:A20)</f>
         <v>19</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="37">
         <f>AVERAGE(C2:C20)</f>
         <v>38276.190476190473</v>
       </c>
@@ -3207,435 +3765,448 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D4F6E7-ACFD-4A3C-8153-1EC771D5598C}">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="24" t="s">
+      <c r="B3" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="C4" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="24" t="s">
+      <c r="E5" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="23" t="s">
+      <c r="D6" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="24" t="s">
+      <c r="B7" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="23" t="s">
+      <c r="C8" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="24" t="s">
+      <c r="E9" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="W9" s="43" t="s">
+      <c r="W9" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
+      <c r="D10" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="54"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="B11" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
+      <c r="F11" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
+      <c r="C12" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="54"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="B13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="24" t="s">
+      <c r="E13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="23" t="s">
+      <c r="D14" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="24" t="s">
+      <c r="B15" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="23" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="23" t="s">
+      <c r="C16" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="24" t="s">
+      <c r="E17" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="23" t="s">
+      <c r="B18" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="23" t="s">
+      <c r="D18" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="24" t="s">
+      <c r="B19" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="23" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="23" t="s">
+      <c r="C20" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="55">
+        <f>COUNTIF(B2:F20,"P")</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="56" t="s">
         <v>124</v>
+      </c>
+      <c r="C23" s="55">
+        <f>COUNTIF(B2:F20,"A")</f>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3643,5 +4214,785 @@
     <mergeCell ref="W9:Y12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0A0D41-3783-4667-BE49-7297F7E37617}">
+  <dimension ref="A1:Z23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="58">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="59">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="58">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="59">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="58">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="59">
+        <v>15000</v>
+      </c>
+      <c r="W7" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+    </row>
+    <row r="8" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="58">
+        <v>15500</v>
+      </c>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+    </row>
+    <row r="9" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="59">
+        <v>16714.285714285699</v>
+      </c>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+    </row>
+    <row r="10" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="58">
+        <v>17928.571428571398</v>
+      </c>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+    </row>
+    <row r="11" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="59">
+        <v>19142.857142857101</v>
+      </c>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+    </row>
+    <row r="12" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="58">
+        <v>20357.1428571428</v>
+      </c>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+    </row>
+    <row r="13" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="59">
+        <v>21571.428571428602</v>
+      </c>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+    </row>
+    <row r="14" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="58">
+        <v>22785.714285714301</v>
+      </c>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+    </row>
+    <row r="15" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="59">
+        <v>24000</v>
+      </c>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+    </row>
+    <row r="16" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="58">
+        <v>25214.285714285699</v>
+      </c>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+    </row>
+    <row r="17" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="59">
+        <v>26428.571428571398</v>
+      </c>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+    </row>
+    <row r="18" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="58">
+        <v>27642.857142857101</v>
+      </c>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+    </row>
+    <row r="19" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="59">
+        <v>28857.1428571428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="58">
+        <v>30071.428571428602</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="55">
+        <f>COUNTIF(B2:B20,"&gt;10000")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="55">
+        <f>COUNTIF(B2:B20,"&lt;5000")</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="W7:Z18"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EEA5CD-B938-4FE2-9BD1-AF3C8D28C5DC}">
+  <dimension ref="A1:Y20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="22">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="23">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="22">
+        <v>58000</v>
+      </c>
+      <c r="V4" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+    </row>
+    <row r="5" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1800</v>
+      </c>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="22">
+        <v>12000</v>
+      </c>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="22">
+        <v>12950</v>
+      </c>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+    </row>
+    <row r="8" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="23">
+        <v>10780</v>
+      </c>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="22">
+        <v>8610</v>
+      </c>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+    </row>
+    <row r="10" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="23">
+        <v>6440</v>
+      </c>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="22">
+        <v>4270</v>
+      </c>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="22">
+        <v>2100</v>
+      </c>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+    </row>
+    <row r="13" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="23">
+        <v>-70</v>
+      </c>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="22">
+        <v>-2240</v>
+      </c>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+    </row>
+    <row r="15" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="23">
+        <v>-4410</v>
+      </c>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="22">
+        <v>-6580</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="22">
+        <v>-8750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="23">
+        <v>-10920</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="22">
+        <v>-13090</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="23">
+        <v>-15260</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="V4:Y15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2:B20">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+      <formula>5000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
+      <formula>20000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF4B7EA-4EF3-4CF9-AD64-51C16B95DC33}">
+  <dimension ref="A1:X20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="61">
+        <v>1</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="61">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62">
+        <v>2</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="62">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="61">
+        <v>3</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="61">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="62">
+        <v>4</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="62">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61">
+        <v>5</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="61">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="61">
+        <v>6</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="20">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="62">
+        <v>7</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="20">
+        <v>63</v>
+      </c>
+      <c r="T8" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+    </row>
+    <row r="9" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="61">
+        <v>8</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="20">
+        <v>64</v>
+      </c>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+    </row>
+    <row r="10" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="62">
+        <v>9</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="20">
+        <v>40</v>
+      </c>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+    </row>
+    <row r="11" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="61">
+        <v>10</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="20">
+        <v>87</v>
+      </c>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+    </row>
+    <row r="12" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="61">
+        <v>11</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="20">
+        <v>73</v>
+      </c>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+    </row>
+    <row r="13" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="62">
+        <v>12</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="20">
+        <v>71</v>
+      </c>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+    </row>
+    <row r="14" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="61">
+        <v>13</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="20">
+        <v>67</v>
+      </c>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+    </row>
+    <row r="15" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="62">
+        <v>14</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="20">
+        <v>75</v>
+      </c>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+    </row>
+    <row r="16" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="61">
+        <v>15</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="20">
+        <v>84</v>
+      </c>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+    </row>
+    <row r="17" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="61">
+        <v>16</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="20">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="62">
+        <v>17</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="20">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="61">
+        <v>18</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="20">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="62">
+        <v>19</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="20">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="T8:X16"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C2:C20">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+      <formula>40</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThanOrEqual">
+      <formula>75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TEST 24.01.2026.xlsx
+++ b/TEST 24.01.2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc4b4fee7e3d8e21/Desktop/Hetvi Github/Data-Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{377B7748-BE04-4BDF-A006-3B714C9CE8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{03CA9FDF-6A15-4973-8D37-E46F18BB2325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{572782F3-CCEA-40BC-B755-63A7C3B28BC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{572782F3-CCEA-40BC-B755-63A7C3B28BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -578,7 +578,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,12 +641,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF1F2328"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1F2328"/>
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
@@ -694,24 +688,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF1F2328"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1F2328"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1F2328"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF1F2328"/>
@@ -751,7 +727,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -786,15 +762,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD1D9E0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,9 +859,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFD1D9E0"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FFD1D9E0"/>
       </right>
@@ -907,7 +872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,159 +925,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color theme="1" tint="0.24994659260841701"/>
@@ -1132,30 +1063,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1198,30 +1105,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1586,7 +1469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CF664E-4FA6-4C37-A32A-C5431F023875}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -1717,7 +1600,7 @@
       </c>
       <c r="D7" s="17">
         <f ca="1">RANDBETWEEN(30000,60000)</f>
-        <v>46105</v>
+        <v>39548</v>
       </c>
       <c r="E7" s="18">
         <v>44007</v>
@@ -1736,7 +1619,7 @@
       </c>
       <c r="D8" s="17">
         <f t="shared" ref="D8:D20" ca="1" si="0">RANDBETWEEN(30000,60000)</f>
-        <v>53720</v>
+        <v>38095</v>
       </c>
       <c r="E8" s="18">
         <v>45198</v>
@@ -1754,7 +1637,7 @@
       </c>
       <c r="D9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>49197</v>
+        <v>33652</v>
       </c>
       <c r="E9" s="18">
         <v>44409</v>
@@ -1772,19 +1655,19 @@
       </c>
       <c r="D10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>30388</v>
+        <v>40244</v>
       </c>
       <c r="E10" s="18">
         <v>44744</v>
       </c>
-      <c r="Q10" s="51" t="s">
+      <c r="Q10" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
@@ -1798,17 +1681,17 @@
       </c>
       <c r="D11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>54467</v>
+        <v>33890</v>
       </c>
       <c r="E11" s="18">
         <v>45588</v>
       </c>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -1822,17 +1705,17 @@
       </c>
       <c r="D12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43813</v>
+        <v>35593</v>
       </c>
       <c r="E12" s="18">
         <v>45693</v>
       </c>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -1846,17 +1729,17 @@
       </c>
       <c r="D13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>39900</v>
+        <v>58085</v>
       </c>
       <c r="E13" s="18">
         <v>45723</v>
       </c>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
@@ -1870,17 +1753,17 @@
       </c>
       <c r="D14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>56166</v>
+        <v>42480</v>
       </c>
       <c r="E14" s="18">
         <v>45644</v>
       </c>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
@@ -1894,18 +1777,18 @@
       </c>
       <c r="D15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>37200</v>
+        <v>31584</v>
       </c>
       <c r="E15" s="18">
         <f>+E14-10</f>
         <v>45634</v>
       </c>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -1919,18 +1802,18 @@
       </c>
       <c r="D16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42612</v>
+        <v>43134</v>
       </c>
       <c r="E16" s="18">
         <f>+E15-45</f>
         <v>45589</v>
       </c>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
@@ -1944,18 +1827,18 @@
       </c>
       <c r="D17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>53513</v>
+        <v>55728</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" ref="E17:E20" si="1">+E16-45</f>
         <v>45544</v>
       </c>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
     </row>
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
@@ -1969,18 +1852,18 @@
       </c>
       <c r="D18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>59635</v>
+        <v>49899</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" si="1"/>
         <v>45499</v>
       </c>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
     </row>
     <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
@@ -1994,18 +1877,18 @@
       </c>
       <c r="D19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>56043</v>
+        <v>57562</v>
       </c>
       <c r="E19" s="18">
         <f t="shared" si="1"/>
         <v>45454</v>
       </c>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
@@ -2019,35 +1902,35 @@
       </c>
       <c r="D20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>52279</v>
+        <v>49387</v>
       </c>
       <c r="E20" s="18">
         <f t="shared" si="1"/>
         <v>45409</v>
       </c>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="5"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2063,196 +1946,196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67869EEE-033C-4CFE-AF27-3D43598FCE81}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:24" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="39">
         <v>28000</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="65" t="s">
+    <row r="3" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="41">
         <v>34000</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64" t="s">
+    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="39">
         <v>51000</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
+    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="40">
         <v>47000</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64" t="s">
+    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="39">
         <v>29000</v>
       </c>
-      <c r="T6" s="51" t="s">
+      <c r="T6" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-    </row>
-    <row r="7" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+    </row>
+    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="39">
         <v>42300</v>
       </c>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-    </row>
-    <row r="8" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65" t="s">
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+    </row>
+    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="40">
         <v>43800</v>
       </c>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-    </row>
-    <row r="9" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+    </row>
+    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="39">
         <v>45300</v>
       </c>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-    </row>
-    <row r="10" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+    </row>
+    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="40">
         <v>46800</v>
       </c>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-    </row>
-    <row r="11" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64" t="s">
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+    </row>
+    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="64">
+      <c r="B11" s="39">
         <v>48300</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="64" t="s">
+    <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="39">
         <v>49800</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="65" t="s">
+    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="B13" s="65">
+      <c r="B13" s="40">
         <v>51300</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64" t="s">
+    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="39">
         <v>52800</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="65" t="s">
+    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="40">
         <v>54300</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64" t="s">
+    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="B16" s="64">
+      <c r="B16" s="39">
         <v>55800</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64" t="s">
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B17" s="64">
+      <c r="B17" s="39">
         <v>57300</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="65" t="s">
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="B18" s="65">
+      <c r="B18" s="40">
         <v>58800</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64" t="s">
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="B19" s="64">
+      <c r="B19" s="39">
         <v>60300</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65" t="s">
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="B20" s="65">
+      <c r="B20" s="40">
         <v>61800</v>
       </c>
     </row>
@@ -2261,18 +2144,19 @@
     <mergeCell ref="T6:X10"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B20">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
       <formula>50000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>30000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>30000</formula>
       <formula>49999</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2281,7 +2165,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2296,95 +2180,95 @@
     <col min="21" max="21" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-    </row>
-    <row r="2" spans="1:21" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+    </row>
+    <row r="2" spans="1:21" ht="33" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="59" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="62">
         <v>45000</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="61" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="62">
         <v>12000</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="61" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="62">
         <v>18000</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="61" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="62">
         <v>62000</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="61" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="62">
         <v>59187</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="61" t="s">
         <v>55</v>
       </c>
       <c r="U7" s="19" t="s">
@@ -2392,198 +2276,198 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="62">
         <v>50985</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="61" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="62">
         <v>52547</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="61" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="62">
         <v>43712</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="61" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="62">
         <v>59709</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="61" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="62">
         <v>41661</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="61" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="62">
         <v>54810</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="61" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="62">
         <v>57649</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="61" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="62">
         <v>46601</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="61" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="62">
         <v>59043</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="61" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="62">
         <v>53290</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="61" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="62">
         <v>45647</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="61" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="62">
         <v>40203</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="61" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="62">
         <v>48361</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="61" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="62">
         <v>48906</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="61" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2612,25 +2496,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2650,11 +2534,11 @@
       <c r="E2" s="2">
         <v>74</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="25">
         <f>SUM(C2,D2,E2)</f>
         <v>234</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="26">
         <f>+F2/300</f>
         <v>0.78</v>
       </c>
@@ -2675,11 +2559,11 @@
       <c r="E3" s="3">
         <v>68</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="25">
         <f t="shared" ref="F3:F20" si="0">SUM(C3,D3,E3)</f>
         <v>203</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="26">
         <f t="shared" ref="G3:G20" si="1">+F3/300</f>
         <v>0.67666666666666664</v>
       </c>
@@ -2700,17 +2584,17 @@
       <c r="E4" s="2">
         <v>92</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="25">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="26">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
     </row>
     <row r="5" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -2728,17 +2612,17 @@
       <c r="E5" s="3">
         <v>38</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="25">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="26">
         <f t="shared" si="1"/>
         <v>0.37666666666666665</v>
       </c>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
     </row>
     <row r="6" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -2756,17 +2640,17 @@
       <c r="E6" s="2">
         <v>58</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="25">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="26">
         <f t="shared" si="1"/>
         <v>0.57666666666666666</v>
       </c>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
     </row>
     <row r="7" spans="1:25" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -2784,17 +2668,17 @@
       <c r="E7" s="1">
         <v>95</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="25">
         <f t="shared" si="0"/>
         <v>263</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="26">
         <f t="shared" si="1"/>
         <v>0.87666666666666671</v>
       </c>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
     </row>
     <row r="8" spans="1:25" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -2812,17 +2696,17 @@
       <c r="E8" s="1">
         <v>95</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="25">
         <f t="shared" si="0"/>
         <v>249</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="26">
         <f t="shared" si="1"/>
         <v>0.83</v>
       </c>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
     </row>
     <row r="9" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -2840,17 +2724,17 @@
       <c r="E9" s="1">
         <v>66</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="25">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="26">
         <f t="shared" si="1"/>
         <v>0.68666666666666665</v>
       </c>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
     </row>
     <row r="10" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -2868,17 +2752,17 @@
       <c r="E10" s="1">
         <v>78</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="25">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="26">
         <f t="shared" si="1"/>
         <v>0.7466666666666667</v>
       </c>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
     </row>
     <row r="11" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -2896,17 +2780,17 @@
       <c r="E11" s="1">
         <v>53</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="25">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="26">
         <f t="shared" si="1"/>
         <v>0.68666666666666665</v>
       </c>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
     </row>
     <row r="12" spans="1:25" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -2924,17 +2808,17 @@
       <c r="E12" s="1">
         <v>59</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="25">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="26">
         <f t="shared" si="1"/>
         <v>0.54</v>
       </c>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
     </row>
     <row r="13" spans="1:25" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -2952,17 +2836,17 @@
       <c r="E13" s="1">
         <v>90</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="25">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="26">
         <f t="shared" si="1"/>
         <v>0.81</v>
       </c>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
     </row>
     <row r="14" spans="1:25" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -2980,11 +2864,11 @@
       <c r="E14" s="1">
         <v>61</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="25">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="26">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3005,11 +2889,11 @@
       <c r="E15" s="1">
         <v>92</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="25">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="26">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
@@ -3030,11 +2914,11 @@
       <c r="E16" s="1">
         <v>73</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="25">
         <f t="shared" si="0"/>
         <v>241</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="26">
         <f t="shared" si="1"/>
         <v>0.80333333333333334</v>
       </c>
@@ -3055,11 +2939,11 @@
       <c r="E17" s="1">
         <v>50</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="25">
         <f t="shared" si="0"/>
         <v>234</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="26">
         <f t="shared" si="1"/>
         <v>0.78</v>
       </c>
@@ -3080,11 +2964,11 @@
       <c r="E18" s="1">
         <v>56</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="25">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="26">
         <f t="shared" si="1"/>
         <v>0.64</v>
       </c>
@@ -3105,11 +2989,11 @@
       <c r="E19" s="1">
         <v>80</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="25">
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="26">
         <f t="shared" si="1"/>
         <v>0.67333333333333334</v>
       </c>
@@ -3130,11 +3014,11 @@
       <c r="E20" s="1">
         <v>73</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="25">
         <f t="shared" si="0"/>
         <v>197</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="27">
         <f t="shared" si="1"/>
         <v>0.65666666666666662</v>
       </c>
@@ -3153,7 +3037,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3161,246 +3045,246 @@
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:24" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="31"/>
-    </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="D1" s="54"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="55">
         <v>45292</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="46">
         <v>12000</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="56">
         <v>45294</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="47">
         <v>25000</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="55">
         <v>45296</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="46">
         <v>8000</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-    </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="56">
         <v>45299</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="47">
         <v>32000</v>
       </c>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-    </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="55">
         <v>45301</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="46">
         <v>15000</v>
       </c>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="55">
         <v>45292</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="46">
         <v>22300</v>
       </c>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-    </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="56">
         <v>45294</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="47">
         <v>23600</v>
       </c>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="55">
         <v>45296</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="46">
         <v>24900</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="56">
         <v>45299</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="47">
         <v>26200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="55">
         <v>45301</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="46">
         <v>27500</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="55">
         <v>45292</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="46">
         <v>28800</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="56">
         <v>45294</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="47">
         <v>30100</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="55">
         <v>45296</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="46">
         <v>31400</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="56">
         <v>45299</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="47">
         <v>32700</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="55">
         <v>45301</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="46">
         <v>34000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="55">
         <v>45292</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="46">
         <v>35300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="56">
         <v>45294</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="47">
         <v>36600</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="55">
         <v>45296</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="46">
         <v>37900</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="55">
         <v>45297</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="47">
         <v>39200</v>
       </c>
     </row>
@@ -3408,17 +3292,17 @@
       <c r="B21" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="29">
         <f>SUM(C2:C20)</f>
         <v>522500</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="31">
         <f>AVERAGE(C2:C20)</f>
         <v>27500</v>
       </c>
@@ -3427,7 +3311,7 @@
       <c r="B23" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="29">
         <f>MIN(C2:C20)</f>
         <v>8000</v>
       </c>
@@ -3436,7 +3320,7 @@
       <c r="B24" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="29">
         <f>MAX(C2:C20)</f>
         <v>39200</v>
       </c>
@@ -3456,7 +3340,7 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3465,289 +3349,289 @@
     <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:26" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="48" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="52">
         <v>42000</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="32">
         <f>SUM(C2:C7)</f>
         <v>231733.33333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="52">
         <v>38000</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="52">
         <v>38276.190476190503</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="52">
         <v>38104.761904761901</v>
       </c>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="52">
         <v>37761.9047619048</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="52">
         <v>37590.476190476198</v>
       </c>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="53">
         <v>28000</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="32">
         <f>SUM(C8:C14)</f>
         <v>247923.8095238095</v>
       </c>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="53">
         <v>30000</v>
       </c>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="53">
         <v>38533.333333333299</v>
       </c>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="53">
         <v>38190.476190476198</v>
       </c>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="53">
         <v>38019.047619047597</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="53">
         <v>37676.190476190503</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="53">
         <v>37504.761904761901</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="52">
         <v>45000</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="32">
         <f>SUM(C15:C20)</f>
         <v>247590.47619047633</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="53">
         <v>50000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="52">
         <v>38447.619047619097</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="53">
         <v>38361.9047619048</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="52">
         <v>37933.333333333299</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="53">
         <v>37847.619047619097</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
+      <c r="A21" s="29">
         <f>COUNTA(A2:A20)</f>
         <v>19</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="32">
         <f>AVERAGE(C2:C20)</f>
         <v>38276.190476190473</v>
       </c>
@@ -3768,7 +3652,7 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3778,433 +3662,433 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="51" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="D2" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="23" t="s">
+      <c r="B3" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="22" t="s">
+      <c r="C4" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="D6" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="23" t="s">
+      <c r="B7" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="22" t="s">
+      <c r="C8" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="W9" s="54" t="s">
+      <c r="W9" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
+      <c r="D10" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="B11" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
+      <c r="F11" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="54"/>
+      <c r="C12" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="23" t="s">
+      <c r="E13" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="22" t="s">
+      <c r="D14" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="23" t="s">
+      <c r="B15" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="22" t="s">
+      <c r="C16" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="23" t="s">
+      <c r="B17" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="23" t="s">
+      <c r="E17" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="22" t="s">
+      <c r="D18" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="23" t="s">
+      <c r="B19" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="22" t="s">
+      <c r="C20" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="34">
         <f>COUNTIF(B2:F20,"P")</f>
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="34">
         <f>COUNTIF(B2:F20,"A")</f>
         <v>27</v>
       </c>
@@ -4223,7 +4107,7 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4231,230 +4115,230 @@
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="45" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="49">
         <v>4500</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="50">
         <v>12000</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="49">
         <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+    <row r="5" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="50">
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+    <row r="6" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="49">
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+    <row r="7" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="50">
         <v>15000</v>
       </c>
-      <c r="W7" s="51" t="s">
+      <c r="W7" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-    </row>
-    <row r="8" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+    </row>
+    <row r="8" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="49">
         <v>15500</v>
       </c>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-    </row>
-    <row r="9" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+    </row>
+    <row r="9" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="50">
         <v>16714.285714285699</v>
       </c>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-    </row>
-    <row r="10" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+    </row>
+    <row r="10" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B10" s="49">
         <v>17928.571428571398</v>
       </c>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-    </row>
-    <row r="11" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+    </row>
+    <row r="11" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="59">
+      <c r="B11" s="50">
         <v>19142.857142857101</v>
       </c>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-    </row>
-    <row r="12" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58" t="s">
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+    </row>
+    <row r="12" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="49">
         <v>20357.1428571428</v>
       </c>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-    </row>
-    <row r="13" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59" t="s">
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+    </row>
+    <row r="13" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="59">
+      <c r="B13" s="50">
         <v>21571.428571428602</v>
       </c>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-    </row>
-    <row r="14" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+    </row>
+    <row r="14" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="49">
         <v>22785.714285714301</v>
       </c>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-    </row>
-    <row r="15" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+    </row>
+    <row r="15" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="50">
         <v>24000</v>
       </c>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-    </row>
-    <row r="16" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+    </row>
+    <row r="16" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="58">
+      <c r="B16" s="49">
         <v>25214.285714285699</v>
       </c>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-    </row>
-    <row r="17" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+    </row>
+    <row r="17" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="59">
+      <c r="B17" s="50">
         <v>26428.571428571398</v>
       </c>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-    </row>
-    <row r="18" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+    </row>
+    <row r="18" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="49">
         <v>27642.857142857101</v>
       </c>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-    </row>
-    <row r="19" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59" t="s">
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+    </row>
+    <row r="19" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="59">
+      <c r="B19" s="50">
         <v>28857.1428571428</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58" t="s">
+    <row r="20" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="58">
+      <c r="B20" s="49">
         <v>30071.428571428602</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="55">
+      <c r="B22" s="34">
         <f>COUNTIF(B2:B20,"&gt;10000")</f>
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="55">
+      <c r="B23" s="34">
         <f>COUNTIF(B2:B20,"&lt;5000")</f>
         <v>2</v>
       </c>
@@ -4473,218 +4357,218 @@
   <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:25" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="46">
         <v>22000</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:25" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="47">
         <v>3500</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="46">
         <v>58000</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-    </row>
-    <row r="5" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+    </row>
+    <row r="5" spans="1:25" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="47">
         <v>1800</v>
       </c>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="46">
         <v>12000</v>
       </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="46">
         <v>12950</v>
       </c>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-    </row>
-    <row r="8" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+    </row>
+    <row r="8" spans="1:25" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="47">
         <v>10780</v>
       </c>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="46">
         <v>8610</v>
       </c>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-    </row>
-    <row r="10" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+    </row>
+    <row r="10" spans="1:25" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="47">
         <v>6440</v>
       </c>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="46">
         <v>4270</v>
       </c>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="46">
         <v>2100</v>
       </c>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-    </row>
-    <row r="13" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+    </row>
+    <row r="13" spans="1:25" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="47">
         <v>-70</v>
       </c>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-    </row>
-    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="46">
         <v>-2240</v>
       </c>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-    </row>
-    <row r="15" spans="1:25" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+    </row>
+    <row r="15" spans="1:25" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="47">
         <v>-4410</v>
       </c>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-    </row>
-    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="46">
         <v>-6580</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="46">
         <v>-8750</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="47">
         <v>-10920</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="46">
         <v>-13090</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="47">
         <v>-15260</v>
       </c>
     </row>
@@ -4693,10 +4577,10 @@
     <mergeCell ref="V4:Y15"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B20">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>5000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>20000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4709,275 +4593,275 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:24" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="45" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61">
+    <row r="2" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="43">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="43">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62">
+    <row r="3" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="44">
         <v>2</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="44">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61">
+    <row r="4" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="43">
         <v>3</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="43">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62">
+    <row r="5" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="44">
         <v>4</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="44">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61">
+    <row r="6" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
         <v>5</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="43">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61">
+    <row r="7" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="43">
         <v>6</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="15">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62">
+    <row r="8" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="44">
         <v>7</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="15">
         <v>63</v>
       </c>
-      <c r="T8" s="51" t="s">
+      <c r="T8" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-    </row>
-    <row r="9" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61">
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+    </row>
+    <row r="9" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="43">
         <v>8</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="15">
         <v>64</v>
       </c>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-    </row>
-    <row r="10" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62">
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+    </row>
+    <row r="10" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="44">
         <v>9</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="15">
         <v>40</v>
       </c>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-    </row>
-    <row r="11" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61">
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+    </row>
+    <row r="11" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="43">
         <v>10</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="15">
         <v>87</v>
       </c>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-    </row>
-    <row r="12" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61">
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+    </row>
+    <row r="12" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="43">
         <v>11</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="15">
         <v>73</v>
       </c>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-    </row>
-    <row r="13" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62">
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+    </row>
+    <row r="13" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="44">
         <v>12</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="15">
         <v>71</v>
       </c>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-    </row>
-    <row r="14" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61">
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+    </row>
+    <row r="14" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="43">
         <v>13</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="15">
         <v>67</v>
       </c>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-    </row>
-    <row r="15" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62">
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+    </row>
+    <row r="15" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="44">
         <v>14</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="15">
         <v>75</v>
       </c>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-    </row>
-    <row r="16" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="61">
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+    </row>
+    <row r="16" spans="1:24" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="43">
         <v>15</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="15">
         <v>84</v>
       </c>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-    </row>
-    <row r="17" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61">
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+    </row>
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="43">
         <v>16</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="15">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="62">
+    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="44">
         <v>17</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="15">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61">
+    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="43">
         <v>18</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="15">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="62">
+    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="44">
         <v>19</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="15">
         <v>87</v>
       </c>
     </row>
@@ -4986,10 +4870,10 @@
     <mergeCell ref="T8:X16"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C20">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThanOrEqual">
       <formula>75</formula>
     </cfRule>
   </conditionalFormatting>
